--- a/biology/Botanique/Listera/Listera.xlsx
+++ b/biology/Botanique/Listera/Listera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Listera est un genre d'orchidées terrestres comptant environ 30 espèces. Actuellement, elles font partie du genre Neottia.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de Listera a été attribué en l'honneur du naturaliste anglais Martin Lister.
 </t>
@@ -542,12 +556,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Tige portant des feuilles opposées.
 L'inflorescence est une grappe lâche de petites fleurs.
 Labelle allongé.
-Les fleurs ont un mécanisme qui permet au stigmate d'exploser et de propulser le pollen sur le dos d'un insecte[1].
+Les fleurs ont un mécanisme qui permet au stigmate d'exploser et de propulser le pollen sur le dos d'un insecte.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Circumboréale : Amérique du Nord, Europe.
 </t>
@@ -607,7 +625,9 @@
           <t>Espèces européennes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Listera cordata (L.) R. Br., listère à feuilles en cœur, listère en cœur
 Listera ovata (L.) R. Br. listère à feuilles ovales, listère ovale.</t>
@@ -638,7 +658,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Listera alternifolia
